--- a/ICT 활용 특강-예제.xlsx
+++ b/ICT 활용 특강-예제.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juni3\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juni3\Documents\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{943DA307-B7C6-46C7-B0DC-6E0F94F579E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD234BB5-CD0F-47A5-8CB4-FDFF9AD59F38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="도서주문" sheetId="6" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
   <si>
     <t>정가</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -200,10 +200,6 @@
   </si>
   <si>
     <t>월간 판매 내역</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연빛</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -221,7 +217,7 @@
     <numFmt numFmtId="180" formatCode="yy/mm/dd\(aaa\)"/>
     <numFmt numFmtId="181" formatCode="@&quot; 출판사&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,6 +254,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -418,13 +421,13 @@
     <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -434,7 +437,130 @@
     <cellStyle name="통화 [0]" xfId="2" builtinId="7"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="20">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+      <numFmt numFmtId="182" formatCode="@&quot;★&quot;"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+      <numFmt numFmtId="182" formatCode="@&quot;★&quot;"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -712,8 +838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1041,7 +1167,7 @@
         <f t="shared" si="0"/>
         <v>207900</v>
       </c>
-      <c r="I12" s="26"/>
+      <c r="I12" s="24"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="21">
@@ -1157,8 +1283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1219,29 +1345,29 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" s="9">
-        <v>8984317411</v>
+        <v>2125461472</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>4</v>
+        <v>24</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>14</v>
       </c>
       <c r="D3" s="10">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" s="11">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="F3" s="12">
         <v>0.1</v>
       </c>
       <c r="G3" s="11">
         <f>D3*E3*(1-F3)</f>
-        <v>245700</v>
+        <v>435600</v>
       </c>
       <c r="H3" s="14">
-        <v>0.71</v>
+        <v>0.68</v>
       </c>
       <c r="I3" s="15"/>
       <c r="J3" s="2"/>
@@ -1251,16 +1377,16 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4" s="9">
-        <v>1130612244</v>
+        <v>8901204215</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="D4" s="10">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E4" s="11">
         <v>15000</v>
@@ -1269,11 +1395,11 @@
         <v>0.1</v>
       </c>
       <c r="G4" s="11">
-        <f t="shared" ref="G4:G16" si="0">D4*E4*(1-F4)</f>
-        <v>256500</v>
+        <f>D4*E4*(1-F4)</f>
+        <v>283500</v>
       </c>
       <c r="H4" s="14">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="I4" s="15"/>
       <c r="J4" s="2"/>
@@ -1283,29 +1409,29 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5" s="9">
-        <v>8956055467</v>
+        <v>8984317411</v>
       </c>
       <c r="B5" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="10">
         <v>21</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="10">
-        <v>18</v>
-      </c>
       <c r="E5" s="11">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="F5" s="12">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="G5" s="11">
-        <f t="shared" si="0"/>
-        <v>244800</v>
+        <f>D5*E5*(1-F5)</f>
+        <v>245700</v>
       </c>
       <c r="H5" s="14">
-        <v>0.94</v>
+        <v>0.71</v>
       </c>
       <c r="I5" s="15"/>
       <c r="J5" s="2"/>
@@ -1315,29 +1441,29 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" s="9">
-        <v>8932917237</v>
+        <v>1130612244</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" s="10">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E6" s="11">
-        <v>19800</v>
+        <v>15000</v>
       </c>
       <c r="F6" s="12">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="G6" s="11">
-        <f t="shared" si="0"/>
-        <v>252450</v>
+        <f>D6*E6*(1-F6)</f>
+        <v>256500</v>
       </c>
       <c r="H6" s="14">
-        <v>1.2</v>
+        <v>1.05</v>
       </c>
       <c r="I6" s="15"/>
       <c r="J6" s="2"/>
@@ -1345,29 +1471,29 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7" s="9">
-        <v>8901204215</v>
+        <v>1134571264</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="D7" s="10">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E7" s="11">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="F7" s="12">
         <v>0.1</v>
       </c>
       <c r="G7" s="11">
-        <f t="shared" si="0"/>
-        <v>283500</v>
+        <f>D7*E7*(1-F7)</f>
+        <v>218700</v>
       </c>
       <c r="H7" s="14">
-        <v>0.95</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="I7" s="15"/>
       <c r="J7" s="2"/>
@@ -1375,85 +1501,85 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8" s="9">
-        <v>2125461472</v>
+        <v>8956055467</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>14</v>
+        <v>21</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="D8" s="10">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E8" s="11">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="F8" s="12">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="G8" s="11">
-        <f t="shared" si="0"/>
-        <v>435600</v>
+        <f>D8*E8*(1-F8)</f>
+        <v>244800</v>
       </c>
       <c r="H8" s="14">
-        <v>0.68</v>
+        <v>0.94</v>
       </c>
       <c r="I8" s="15"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9" s="9">
-        <v>1134571264</v>
+        <v>8984315117</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" s="10">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E9" s="11">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="F9" s="12">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="G9" s="11">
-        <f t="shared" si="0"/>
-        <v>218700</v>
+        <f>D9*E9*(1-F9)</f>
+        <v>163200</v>
       </c>
       <c r="H9" s="14">
-        <v>1.1100000000000001</v>
+        <v>0.94</v>
       </c>
       <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10" s="9">
-        <v>8984315117</v>
+        <v>8932917237</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D10" s="10">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10" s="11">
-        <v>12000</v>
+        <v>19800</v>
       </c>
       <c r="F10" s="12">
         <v>0.15</v>
       </c>
       <c r="G10" s="11">
-        <f t="shared" si="0"/>
-        <v>163200</v>
+        <f>D10*E10*(1-F10)</f>
+        <v>252450</v>
       </c>
       <c r="H10" s="14">
-        <v>0.94</v>
+        <v>1.2</v>
       </c>
       <c r="I10" s="15"/>
     </row>
@@ -1477,7 +1603,7 @@
         <v>0.1</v>
       </c>
       <c r="G11" s="11">
-        <f t="shared" si="0"/>
+        <f>D11*E11*(1-F11)</f>
         <v>114750</v>
       </c>
       <c r="H11" s="14">
@@ -1487,113 +1613,113 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12" s="9">
-        <v>2174546547</v>
+        <v>1147713676</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>41</v>
+        <v>35</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="D12" s="10">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E12" s="11">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="F12" s="12">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="G12" s="11">
-        <f t="shared" si="0"/>
-        <v>207900</v>
+        <f>D12*E12*(1-F12)</f>
+        <v>198900</v>
       </c>
       <c r="H12" s="14">
-        <v>1</v>
+        <v>0.77</v>
       </c>
       <c r="I12" s="15"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13" s="9">
-        <v>1147713676</v>
+        <v>8963220826</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="D13" s="10">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E13" s="11">
-        <v>18000</v>
+        <v>14800</v>
       </c>
       <c r="F13" s="12">
         <v>0.15</v>
       </c>
       <c r="G13" s="11">
-        <f t="shared" si="0"/>
-        <v>198900</v>
+        <f>D13*E13*(1-F13)</f>
+        <v>150960</v>
       </c>
       <c r="H13" s="14">
-        <v>0.77</v>
+        <v>1.33</v>
       </c>
       <c r="I13" s="15"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14" s="9">
-        <v>8934908068</v>
+        <v>2174546547</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>36</v>
+        <v>28</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>14</v>
       </c>
       <c r="D14" s="10">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E14" s="11">
-        <v>8500</v>
+        <v>21000</v>
       </c>
       <c r="F14" s="12">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G14" s="11">
-        <f t="shared" si="0"/>
-        <v>54400</v>
+        <f>D14*E14*(1-F14)</f>
+        <v>207900</v>
       </c>
       <c r="H14" s="14">
-        <v>0.63</v>
+        <v>1</v>
       </c>
       <c r="I14" s="15"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15" s="9">
-        <v>8963220826</v>
+        <v>8934908068</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D15" s="10">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E15" s="11">
-        <v>14800</v>
+        <v>8500</v>
       </c>
       <c r="F15" s="12">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="G15" s="11">
-        <f t="shared" si="0"/>
-        <v>150960</v>
+        <f>D15*E15*(1-F15)</f>
+        <v>54400</v>
       </c>
       <c r="H15" s="14">
-        <v>1.33</v>
+        <v>0.63</v>
       </c>
       <c r="I15" s="15"/>
     </row>
@@ -1617,7 +1743,7 @@
         <v>0.2</v>
       </c>
       <c r="G16" s="11">
-        <f t="shared" si="0"/>
+        <f>D16*E16*(1-F16)</f>
         <v>156800</v>
       </c>
       <c r="H16" s="14">
@@ -1626,11 +1752,86 @@
       <c r="I16" s="15"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:H16">
+    <sortCondition descending="1" ref="D3:D16"/>
+  </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="G3:G16">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="greaterThanOrEqual">
+      <formula>250000</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8C301986-2AD4-4FE3-A02B-874E3E86BF5B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:H16">
+    <cfRule type="expression" dxfId="3" priority="5">
+      <formula>$E3&gt;=20000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D16">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="9" tint="0.79998168889431442"/>
+        <color theme="5"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:C16">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"한빛"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{8C301986-2AD4-4FE3-A02B-874E3E86BF5B}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G3:G16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="3" id="{F0221F67-CC08-442D-8BAB-B704A6ADEBA7}">
+            <x14:iconSet iconSet="3Triangles">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>33</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>67</xm:f>
+              </x14:cfvo>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H3:H16</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>